--- a/Code/Results/Cases/Case_3_137/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_137/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.71454273162501</v>
+        <v>23.97304912817162</v>
       </c>
       <c r="C2">
-        <v>17.08468986394889</v>
+        <v>9.467021466637208</v>
       </c>
       <c r="D2">
-        <v>4.983505040815272</v>
+        <v>7.496262721895841</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.22452504542684</v>
+        <v>40.33229155271498</v>
       </c>
       <c r="G2">
-        <v>2.060877547985889</v>
+        <v>3.693699081453545</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.107689040439167</v>
+        <v>10.8179865546421</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.39600166201489</v>
+        <v>19.86063773198385</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.59420428002941</v>
+        <v>23.44570026549173</v>
       </c>
       <c r="C3">
-        <v>15.88548137799618</v>
+        <v>8.864468073970492</v>
       </c>
       <c r="D3">
-        <v>5.017700723473115</v>
+        <v>7.518017032785777</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>39.09133383202551</v>
+        <v>39.93198758602487</v>
       </c>
       <c r="G3">
-        <v>2.074813629296932</v>
+        <v>3.698413125267562</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.810369321472519</v>
+        <v>10.79925974713658</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.60238552774394</v>
+        <v>19.91694477518601</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.32542511450373</v>
+        <v>23.12399964270126</v>
       </c>
       <c r="C4">
-        <v>15.11563878731529</v>
+        <v>8.47222758776892</v>
       </c>
       <c r="D4">
-        <v>5.043416830412469</v>
+        <v>7.53260962496968</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.77893781339989</v>
+        <v>39.69704444233493</v>
       </c>
       <c r="G4">
-        <v>2.083513169590526</v>
+        <v>3.701454010776515</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.630121271810234</v>
+        <v>10.79019025838891</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.73421543455794</v>
+        <v>19.95349934376373</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.79756855298373</v>
+        <v>22.99363543139072</v>
       </c>
       <c r="C5">
-        <v>14.7932853185414</v>
+        <v>8.3067846572525</v>
       </c>
       <c r="D5">
-        <v>5.054983857654742</v>
+        <v>7.538865535986485</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>37.24376502879519</v>
+        <v>39.60411711564352</v>
       </c>
       <c r="G5">
-        <v>2.087099037078036</v>
+        <v>3.702730179429174</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.557290249438127</v>
+        <v>10.78710641214416</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.78917088877732</v>
+        <v>19.96889349210754</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.70926811472882</v>
+        <v>22.97203877191087</v>
       </c>
       <c r="C6">
-        <v>14.73923157658445</v>
+        <v>8.278974681018667</v>
       </c>
       <c r="D6">
-        <v>5.056967537374673</v>
+        <v>7.539922968279894</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>37.15488947839648</v>
+        <v>39.58885896247192</v>
       </c>
       <c r="G6">
-        <v>2.087697060517726</v>
+        <v>3.702944324602085</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.545235665479185</v>
+        <v>10.78663133567222</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.79836940253508</v>
+        <v>19.9714797351258</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.31834993536172</v>
+        <v>23.1222382709865</v>
       </c>
       <c r="C7">
-        <v>15.1113266397757</v>
+        <v>8.4700190473971</v>
       </c>
       <c r="D7">
-        <v>5.043568547504116</v>
+        <v>7.532692743718545</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.7717212561571</v>
+        <v>39.69577968865197</v>
       </c>
       <c r="G7">
-        <v>2.083561358864204</v>
+        <v>3.701471071678459</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.629136468109311</v>
+        <v>10.79014618906556</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.73495164822833</v>
+        <v>19.95370493938239</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.98749144388598</v>
+        <v>23.79090658339463</v>
       </c>
       <c r="C8">
-        <v>16.67802841445041</v>
+        <v>9.263881018271753</v>
       </c>
       <c r="D8">
-        <v>4.994252818689577</v>
+        <v>7.503506406108061</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>40.48967426982701</v>
+        <v>40.19206992041448</v>
       </c>
       <c r="G8">
-        <v>2.065656158907446</v>
+        <v>3.695294185200878</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.004715288211973</v>
+        <v>10.81102636384295</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.46606838665617</v>
+        <v>19.87964078120646</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>34.03346330420963</v>
+        <v>25.1099835082657</v>
       </c>
       <c r="C9">
-        <v>19.4950831448075</v>
+        <v>10.64420799602097</v>
       </c>
       <c r="D9">
-        <v>4.940105738184793</v>
+        <v>7.456134421448116</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>45.79409444327297</v>
+        <v>41.24722762333881</v>
       </c>
       <c r="G9">
-        <v>2.031428449212107</v>
+        <v>3.684336046973797</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.758473920287699</v>
+        <v>10.87116705772443</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.98225125510149</v>
+        <v>19.75014733185512</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.50111686864408</v>
+        <v>26.07254759404719</v>
       </c>
       <c r="C10">
-        <v>21.42668175741453</v>
+        <v>11.55135948009817</v>
       </c>
       <c r="D10">
-        <v>4.93449584740797</v>
+        <v>7.427426566682736</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>49.6827111693021</v>
+        <v>42.0665223343106</v>
       </c>
       <c r="G10">
-        <v>2.006419212136618</v>
+        <v>3.676978894844527</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.322785768948808</v>
+        <v>10.92692142192756</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.65858029866121</v>
+        <v>19.66463702423567</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>39.03392118266423</v>
+        <v>26.50678551183399</v>
       </c>
       <c r="C11">
-        <v>22.28019615778896</v>
+        <v>11.94098347360784</v>
       </c>
       <c r="D11">
-        <v>4.941566989895432</v>
+        <v>7.415708843662698</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>51.45560385876426</v>
+        <v>42.44747584984778</v>
       </c>
       <c r="G11">
-        <v>1.994962776842109</v>
+        <v>3.673780406908087</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.582285653965815</v>
+        <v>10.95475908317635</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.51988087446034</v>
+        <v>19.62783407345927</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>39.60869406148378</v>
+        <v>26.67052464133744</v>
       </c>
       <c r="C12">
-        <v>22.60026075298507</v>
+        <v>12.0852246965661</v>
       </c>
       <c r="D12">
-        <v>4.945847651370659</v>
+        <v>7.411466131908632</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>52.12830946156271</v>
+        <v>42.59280384132298</v>
       </c>
       <c r="G12">
-        <v>1.990602019927276</v>
+        <v>3.672590381499908</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.681033448056207</v>
+        <v>10.96565223861232</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.46877097184362</v>
+        <v>19.61419994206807</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>39.48514488339131</v>
+        <v>26.6352941619037</v>
       </c>
       <c r="C13">
-        <v>22.53146034811422</v>
+        <v>12.05430636428162</v>
       </c>
       <c r="D13">
-        <v>4.944850586709578</v>
+        <v>7.412371197877174</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.98335473800854</v>
+        <v>42.56145919130672</v>
       </c>
       <c r="G13">
-        <v>1.991542382457189</v>
+        <v>3.672845735579861</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.659743300182608</v>
+        <v>10.96329063585514</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.4797121504555</v>
+        <v>19.61712283384076</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>39.08131682333988</v>
+        <v>26.52027136335199</v>
       </c>
       <c r="C14">
-        <v>22.30658800491153</v>
+        <v>11.95291636467891</v>
       </c>
       <c r="D14">
-        <v>4.941885660273577</v>
+        <v>7.415355885126286</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>51.51091521182722</v>
+        <v>42.45941132128518</v>
       </c>
       <c r="G14">
-        <v>1.994604534931672</v>
+        <v>3.673682079361614</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.590399472585212</v>
+        <v>10.9556482481856</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.51564650301848</v>
+        <v>19.62670632027454</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>38.83324734823068</v>
+        <v>26.4497207790109</v>
       </c>
       <c r="C15">
-        <v>22.16845356580913</v>
+        <v>11.89038258006707</v>
       </c>
       <c r="D15">
-        <v>4.940285391201203</v>
+        <v>7.417209474710332</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>51.2217361609237</v>
+        <v>42.397039780408</v>
       </c>
       <c r="G15">
-        <v>1.996476907097536</v>
+        <v>3.674197116758911</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.54798997113854</v>
+        <v>10.95101272509898</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.53784753482461</v>
+        <v>19.63261588541996</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>37.40010723403525</v>
+        <v>26.04408078149434</v>
       </c>
       <c r="C16">
-        <v>21.37043488106939</v>
+        <v>11.52543400068017</v>
       </c>
       <c r="D16">
-        <v>4.934245362326864</v>
+        <v>7.428219481649198</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>49.56698841874483</v>
+        <v>42.04178217221967</v>
       </c>
       <c r="G16">
-        <v>2.007165418158404</v>
+        <v>3.677190894801831</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.305888991824233</v>
+        <v>10.92515161284138</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.66783125789232</v>
+        <v>19.66708444098382</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.50997886798023</v>
+        <v>25.79417468709196</v>
       </c>
       <c r="C17">
-        <v>20.87474180662002</v>
+        <v>11.29565652099801</v>
       </c>
       <c r="D17">
-        <v>4.933150516888309</v>
+        <v>7.435318526593529</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>48.55333527004078</v>
+        <v>41.82587364060009</v>
       </c>
       <c r="G17">
-        <v>2.013694843925899</v>
+        <v>3.679065357787964</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.158128356181949</v>
+        <v>10.90991764077001</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.74987724288254</v>
+        <v>19.6887672928054</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.99374514152399</v>
+        <v>25.65010269704149</v>
       </c>
       <c r="C18">
-        <v>20.58722920604176</v>
+        <v>11.1613247638255</v>
       </c>
       <c r="D18">
-        <v>4.933411635052806</v>
+        <v>7.439527891870481</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>47.97061731067704</v>
+        <v>41.70247266362723</v>
       </c>
       <c r="G18">
-        <v>2.017443665167574</v>
+        <v>3.680157468946268</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.07339636833677</v>
+        <v>10.90138867938163</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.79785838876015</v>
+        <v>19.70143593344727</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>35.81820571833988</v>
+        <v>25.60127076072299</v>
       </c>
       <c r="C19">
-        <v>20.4894564151717</v>
+        <v>11.11546929879845</v>
       </c>
       <c r="D19">
-        <v>4.933646897361977</v>
+        <v>7.440974733773997</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>47.77335259526087</v>
+        <v>41.66082940330243</v>
       </c>
       <c r="G19">
-        <v>2.018712100026165</v>
+        <v>3.680529643046678</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.044749698191415</v>
+        <v>10.89854109557588</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.81423482090674</v>
+        <v>19.70575916578008</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.60516996747484</v>
+        <v>25.82081333948166</v>
       </c>
       <c r="C20">
-        <v>20.92775468934066</v>
+        <v>11.3203412059814</v>
       </c>
       <c r="D20">
-        <v>4.933173382890054</v>
+        <v>7.434549750138082</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>48.66120365301704</v>
+        <v>41.8487771882834</v>
       </c>
       <c r="G20">
-        <v>2.013000545713976</v>
+        <v>3.678864373325421</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.173830769013817</v>
+        <v>10.91151521517435</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.74106030044349</v>
+        <v>19.68643869631001</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>39.20007797140669</v>
+        <v>26.5540766073261</v>
       </c>
       <c r="C21">
-        <v>22.37271951853888</v>
+        <v>11.982786544864</v>
       </c>
       <c r="D21">
-        <v>4.942711111580651</v>
+        <v>7.414473917540853</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>51.64963787806699</v>
+        <v>42.48935718055437</v>
       </c>
       <c r="G21">
-        <v>1.993705813576125</v>
+        <v>3.67343585153992</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.610753571330402</v>
+        <v>10.95788349539401</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.50505167929497</v>
+        <v>19.62388320471085</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40.86343168946271</v>
+        <v>27.02916894698076</v>
       </c>
       <c r="C22">
-        <v>23.29905722169317</v>
+        <v>12.39649913478821</v>
       </c>
       <c r="D22">
-        <v>4.958415282987406</v>
+        <v>7.402487865393086</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>53.65568024477677</v>
+        <v>42.91418989592478</v>
       </c>
       <c r="G22">
-        <v>1.98095806673855</v>
+        <v>3.670011336555359</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.899174997050739</v>
+        <v>10.99023516626941</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.35916053643372</v>
+        <v>19.58476235529511</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.97835949977316</v>
+        <v>26.77603651136388</v>
       </c>
       <c r="C23">
-        <v>22.8061216080374</v>
+        <v>12.17744836089539</v>
       </c>
       <c r="D23">
-        <v>4.949085519213949</v>
+        <v>7.408780687206548</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>52.56316766865364</v>
+        <v>42.68692263113109</v>
       </c>
       <c r="G23">
-        <v>1.987778546321199</v>
+        <v>3.67182783053507</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.744940580280245</v>
+        <v>10.97278265862698</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.43618757530526</v>
+        <v>19.60548027362438</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36.56214810237874</v>
+        <v>25.80877122997256</v>
       </c>
       <c r="C24">
-        <v>20.90379548651525</v>
+        <v>11.30918820563304</v>
       </c>
       <c r="D24">
-        <v>4.933160287444696</v>
+        <v>7.434896915311056</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>48.61243627299376</v>
+        <v>41.83842021881426</v>
       </c>
       <c r="G24">
-        <v>2.013314452811712</v>
+        <v>3.678955193357635</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.166731035934294</v>
+        <v>10.91079223740236</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.74504392494418</v>
+        <v>19.68749082292852</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.71259923059922</v>
+        <v>24.75350087524398</v>
       </c>
       <c r="C25">
-        <v>18.75866886943028</v>
+        <v>10.2896294118907</v>
       </c>
       <c r="D25">
-        <v>4.949418228178402</v>
+        <v>7.467885367379553</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>44.36181256815633</v>
+        <v>40.95359719294225</v>
       </c>
       <c r="G25">
-        <v>2.040631199832736</v>
+        <v>3.687177943534206</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.55279204443252</v>
+        <v>10.85285415853767</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.10801415476885</v>
+        <v>19.78349016409963</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_137/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_137/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.97304912817162</v>
+        <v>29.71454273162497</v>
       </c>
       <c r="C2">
-        <v>9.467021466637208</v>
+        <v>17.08468986394875</v>
       </c>
       <c r="D2">
-        <v>7.496262721895841</v>
+        <v>4.983505040815364</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.33229155271498</v>
+        <v>41.2245250454268</v>
       </c>
       <c r="G2">
-        <v>3.693699081453545</v>
+        <v>2.060877547985755</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.8179865546421</v>
+        <v>8.107689040439119</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.86063773198385</v>
+        <v>13.39600166201488</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.44570026549173</v>
+        <v>27.59420428002944</v>
       </c>
       <c r="C3">
-        <v>8.864468073970492</v>
+        <v>15.88548137799607</v>
       </c>
       <c r="D3">
-        <v>7.518017032785777</v>
+        <v>5.017700723473329</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>39.93198758602487</v>
+        <v>39.09133383202558</v>
       </c>
       <c r="G3">
-        <v>3.698413125267562</v>
+        <v>2.074813629296927</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.79925974713658</v>
+        <v>7.810369321472558</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.91694477518601</v>
+        <v>13.60238552774401</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.12399964270126</v>
+        <v>26.32542511450372</v>
       </c>
       <c r="C4">
-        <v>8.47222758776892</v>
+        <v>15.11563878731529</v>
       </c>
       <c r="D4">
-        <v>7.53260962496968</v>
+        <v>5.043416830412485</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>39.69704444233493</v>
+        <v>37.77893781339997</v>
       </c>
       <c r="G4">
-        <v>3.701454010776515</v>
+        <v>2.083513169590526</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.79019025838891</v>
+        <v>7.630121271810244</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.95349934376373</v>
+        <v>13.73421543455798</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.99363543139072</v>
+        <v>25.79756855298372</v>
       </c>
       <c r="C5">
-        <v>8.3067846572525</v>
+        <v>14.79328531854128</v>
       </c>
       <c r="D5">
-        <v>7.538865535986485</v>
+        <v>5.054983857654946</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>39.60411711564352</v>
+        <v>37.24376502879523</v>
       </c>
       <c r="G5">
-        <v>3.702730179429174</v>
+        <v>2.08709903707777</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.78710641214416</v>
+        <v>7.557290249438159</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.96889349210754</v>
+        <v>13.78917088877749</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.97203877191087</v>
+        <v>25.70926811472884</v>
       </c>
       <c r="C6">
-        <v>8.278974681018667</v>
+        <v>14.73923157658444</v>
       </c>
       <c r="D6">
-        <v>7.539922968279894</v>
+        <v>5.056967537374682</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>39.58885896247192</v>
+        <v>37.15488947839642</v>
       </c>
       <c r="G6">
-        <v>3.702944324602085</v>
+        <v>2.087697060517731</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.78663133567222</v>
+        <v>7.545235665479198</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.9714797351258</v>
+        <v>13.79836940253502</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.1222382709865</v>
+        <v>26.31834993536166</v>
       </c>
       <c r="C7">
-        <v>8.4700190473971</v>
+        <v>15.11132663977568</v>
       </c>
       <c r="D7">
-        <v>7.532692743718545</v>
+        <v>5.043568547503994</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>39.69577968865197</v>
+        <v>37.77172125615697</v>
       </c>
       <c r="G7">
-        <v>3.701471071678459</v>
+        <v>2.083561358864206</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.79014618906556</v>
+        <v>7.629136468109277</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.95370493938239</v>
+        <v>13.73495164822831</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.79090658339463</v>
+        <v>28.98749144388606</v>
       </c>
       <c r="C8">
-        <v>9.263881018271753</v>
+        <v>16.67802841445038</v>
       </c>
       <c r="D8">
-        <v>7.503506406108061</v>
+        <v>4.994252818689525</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>40.19206992041448</v>
+        <v>40.48967426982691</v>
       </c>
       <c r="G8">
-        <v>3.695294185200878</v>
+        <v>2.065656158907573</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.81102636384295</v>
+        <v>8.004715288211994</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.87964078120646</v>
+        <v>13.46606838665613</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.1099835082657</v>
+        <v>34.03346330420959</v>
       </c>
       <c r="C9">
-        <v>10.64420799602097</v>
+        <v>19.49508314480741</v>
       </c>
       <c r="D9">
-        <v>7.456134421448116</v>
+        <v>4.940105738184907</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>41.24722762333881</v>
+        <v>45.79409444327294</v>
       </c>
       <c r="G9">
-        <v>3.684336046973797</v>
+        <v>2.031428449212371</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.87116705772443</v>
+        <v>8.75847392028772</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.75014733185512</v>
+        <v>12.98225125510151</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.07254759404719</v>
+        <v>37.50111686864432</v>
       </c>
       <c r="C10">
-        <v>11.55135948009817</v>
+        <v>21.42668175741477</v>
       </c>
       <c r="D10">
-        <v>7.427426566682736</v>
+        <v>4.934495847407907</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>42.0665223343106</v>
+        <v>49.68271116930232</v>
       </c>
       <c r="G10">
-        <v>3.676978894844527</v>
+        <v>2.006419212136745</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.92692142192756</v>
+        <v>9.322785768948814</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.66463702423567</v>
+        <v>12.65858029866111</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.50678551183399</v>
+        <v>39.03392118266397</v>
       </c>
       <c r="C11">
-        <v>11.94098347360784</v>
+        <v>22.28019615778857</v>
       </c>
       <c r="D11">
-        <v>7.415708843662698</v>
+        <v>4.941566989895533</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>42.44747584984778</v>
+        <v>51.45560385876408</v>
       </c>
       <c r="G11">
-        <v>3.673780406908087</v>
+        <v>1.994962776842502</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.95475908317635</v>
+        <v>9.582285653965773</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.62783407345927</v>
+        <v>12.51988087446054</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.67052464133744</v>
+        <v>39.60869406148375</v>
       </c>
       <c r="C12">
-        <v>12.0852246965661</v>
+        <v>22.6002607529853</v>
       </c>
       <c r="D12">
-        <v>7.411466131908632</v>
+        <v>4.94584765137061</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>42.59280384132298</v>
+        <v>52.12830946156273</v>
       </c>
       <c r="G12">
-        <v>3.672590381499908</v>
+        <v>1.990602019927268</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.96565223861232</v>
+        <v>9.681033448056247</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.61419994206807</v>
+        <v>12.46877097184362</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.6352941619037</v>
+        <v>39.4851448833913</v>
       </c>
       <c r="C13">
-        <v>12.05430636428162</v>
+        <v>22.53146034811441</v>
       </c>
       <c r="D13">
-        <v>7.412371197877174</v>
+        <v>4.94485058670953</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>42.56145919130672</v>
+        <v>51.98335473800854</v>
       </c>
       <c r="G13">
-        <v>3.672845735579861</v>
+        <v>1.991542382457312</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.96329063585514</v>
+        <v>9.659743300182592</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.61712283384076</v>
+        <v>12.47971215045547</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.52027136335199</v>
+        <v>39.08131682334003</v>
       </c>
       <c r="C14">
-        <v>11.95291636467891</v>
+        <v>22.30658800491156</v>
       </c>
       <c r="D14">
-        <v>7.415355885126286</v>
+        <v>4.94188566027367</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>42.45941132128518</v>
+        <v>51.51091521182736</v>
       </c>
       <c r="G14">
-        <v>3.673682079361614</v>
+        <v>1.99460453493152</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.9556482481856</v>
+        <v>9.590399472585236</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.62670632027454</v>
+        <v>12.51564650301843</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.4497207790109</v>
+        <v>38.83324734823064</v>
       </c>
       <c r="C15">
-        <v>11.89038258006707</v>
+        <v>22.16845356580924</v>
       </c>
       <c r="D15">
-        <v>7.417209474710332</v>
+        <v>4.940285391201304</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>42.397039780408</v>
+        <v>51.2217361609237</v>
       </c>
       <c r="G15">
-        <v>3.674197116758911</v>
+        <v>1.996476907097657</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.95101272509898</v>
+        <v>9.547989971138533</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.63261588541996</v>
+        <v>12.53784753482461</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.04408078149434</v>
+        <v>37.40010723403537</v>
       </c>
       <c r="C16">
-        <v>11.52543400068017</v>
+        <v>21.37043488106933</v>
       </c>
       <c r="D16">
-        <v>7.428219481649198</v>
+        <v>4.934245362326798</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>42.04178217221967</v>
+        <v>49.56698841874494</v>
       </c>
       <c r="G16">
-        <v>3.677190894801831</v>
+        <v>2.007165418158263</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.92515161284138</v>
+        <v>9.305888991824242</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.66708444098382</v>
+        <v>12.66783125789224</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.79417468709196</v>
+        <v>36.50997886798041</v>
       </c>
       <c r="C17">
-        <v>11.29565652099801</v>
+        <v>20.87474180662002</v>
       </c>
       <c r="D17">
-        <v>7.435318526593529</v>
+        <v>4.933150516888283</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>41.82587364060009</v>
+        <v>48.55333527004085</v>
       </c>
       <c r="G17">
-        <v>3.679065357787964</v>
+        <v>2.013694843925764</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.90991764077001</v>
+        <v>9.158128356181964</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.6887672928054</v>
+        <v>12.74987724288247</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.65010269704149</v>
+        <v>35.99374514152402</v>
       </c>
       <c r="C18">
-        <v>11.1613247638255</v>
+        <v>20.58722920604179</v>
       </c>
       <c r="D18">
-        <v>7.439527891870481</v>
+        <v>4.933411635052864</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>41.70247266362723</v>
+        <v>47.97061731067699</v>
       </c>
       <c r="G18">
-        <v>3.680157468946268</v>
+        <v>2.017443665167574</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.90138867938163</v>
+        <v>9.073396368336768</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.70143593344727</v>
+        <v>12.79785838876022</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.60127076072299</v>
+        <v>35.81820571833998</v>
       </c>
       <c r="C19">
-        <v>11.11546929879845</v>
+        <v>20.48945641517187</v>
       </c>
       <c r="D19">
-        <v>7.440974733773997</v>
+        <v>4.933646897361919</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.66082940330243</v>
+        <v>47.77335259526102</v>
       </c>
       <c r="G19">
-        <v>3.680529643046678</v>
+        <v>2.018712100026298</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.89854109557588</v>
+        <v>9.044749698191383</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.70575916578008</v>
+        <v>12.81423482090677</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.82081333948166</v>
+        <v>36.60516996747476</v>
       </c>
       <c r="C20">
-        <v>11.3203412059814</v>
+        <v>20.92775468934058</v>
       </c>
       <c r="D20">
-        <v>7.434549750138082</v>
+        <v>4.933173382890014</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>41.8487771882834</v>
+        <v>48.66120365301697</v>
       </c>
       <c r="G20">
-        <v>3.678864373325421</v>
+        <v>2.013000545713979</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.91151521517435</v>
+        <v>9.173830769013795</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.68643869631001</v>
+        <v>12.7410603004435</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.5540766073261</v>
+        <v>39.2000779714066</v>
       </c>
       <c r="C21">
-        <v>11.982786544864</v>
+        <v>22.37271951853879</v>
       </c>
       <c r="D21">
-        <v>7.414473917540853</v>
+        <v>4.942711111580858</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>42.48935718055437</v>
+        <v>51.64963787806695</v>
       </c>
       <c r="G21">
-        <v>3.67343585153992</v>
+        <v>1.993705813575994</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.95788349539401</v>
+        <v>9.610753571330402</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.62388320471085</v>
+        <v>12.50505167929508</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.02916894698076</v>
+        <v>40.86343168946272</v>
       </c>
       <c r="C22">
-        <v>12.39649913478821</v>
+        <v>23.29905722169305</v>
       </c>
       <c r="D22">
-        <v>7.402487865393086</v>
+        <v>4.958415282987373</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>42.91418989592478</v>
+        <v>53.65568024477682</v>
       </c>
       <c r="G22">
-        <v>3.670011336555359</v>
+        <v>1.980958066738415</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.99023516626941</v>
+        <v>9.899174997050748</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.58476235529511</v>
+        <v>12.35916053643367</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.77603651136388</v>
+        <v>39.97835949977317</v>
       </c>
       <c r="C23">
-        <v>12.17744836089539</v>
+        <v>22.80612160803749</v>
       </c>
       <c r="D23">
-        <v>7.408780687206548</v>
+        <v>4.949085519213949</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>42.68692263113109</v>
+        <v>52.56316766865368</v>
       </c>
       <c r="G23">
-        <v>3.67182783053507</v>
+        <v>1.987778546321196</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.97278265862698</v>
+        <v>9.744940580280254</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.60548027362438</v>
+        <v>12.43618757530523</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.80877122997256</v>
+        <v>36.56214810237884</v>
       </c>
       <c r="C24">
-        <v>11.30918820563304</v>
+        <v>20.90379548651523</v>
       </c>
       <c r="D24">
-        <v>7.434896915311056</v>
+        <v>4.933160287444668</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>41.83842021881426</v>
+        <v>48.61243627299386</v>
       </c>
       <c r="G24">
-        <v>3.678955193357635</v>
+        <v>2.013314452811716</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.91079223740236</v>
+        <v>9.166731035934289</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.68749082292852</v>
+        <v>12.74504392494421</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.75350087524398</v>
+        <v>32.71259923059919</v>
       </c>
       <c r="C25">
-        <v>10.2896294118907</v>
+        <v>18.75866886943033</v>
       </c>
       <c r="D25">
-        <v>7.467885367379553</v>
+        <v>4.949418228178396</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>40.95359719294225</v>
+        <v>44.36181256815642</v>
       </c>
       <c r="G25">
-        <v>3.687177943534206</v>
+        <v>2.040631199832863</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.85285415853767</v>
+        <v>8.552792044432552</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.78349016409963</v>
+        <v>13.1080141547689</v>
       </c>
       <c r="O25">
         <v>0</v>
